--- a/NodeJs筆記.xlsx
+++ b/NodeJs筆記.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="14805" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Node.js 常用的module
 http://www.cnblogs.com/E-WALKER/p/4592115.html
@@ -67,6 +67,10 @@
 然後當你上傳到git的時候，可以用npm init去產生一個跟這個路徑底下的專案相關的描述檔"package.json"，產生時會要你填一些基本資訊，接著他產生的檔案裏面就會包含這個專案用了哪些module，其他人就可以根據這個json來裝專案所需的module到自己的電腦，
 好像如果有那個json檔的話，只要輸入npm install就可以自動根據json來安裝了
 要記得把node_modules給ignore掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試excel能不能上git</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +423,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -466,6 +470,14 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20180315</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
